--- a/Low Noise Power Supply/Power Supply BOM.xlsx
+++ b/Low Noise Power Supply/Power Supply BOM.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evan.gobien\Documents\GitHub\Certain-Synths-VCO\Low Noise Power Supply\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE2B714-6D17-43B3-8668-0A18BFCE95E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="23880" yWindow="-10680" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -91,49 +100,67 @@
     <t>https://www.digikey.com/en/products/detail/triad-magnetics/WAU12-1500/4915293</t>
   </si>
   <si>
-    <t>WAU12-1500</t>
-  </si>
-  <si>
     <t>Power Barrel Connector</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/cui-devices/PJ-038A/1644549</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/PJ-037A/1644545</t>
+  </si>
+  <si>
+    <t>CP-037A-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -141,7 +168,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -151,45 +178,46 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -379,25 +407,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.75"/>
-    <col customWidth="1" min="2" max="2" width="30.75"/>
-    <col customWidth="1" min="7" max="7" width="186.0"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="186" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -431,20 +464,20 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E2" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F2" s="4">
-        <f t="shared" ref="F2:F16" si="1">D2*E2</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F16" si="0">D2*E2</f>
         <v>6.84</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -458,17 +491,17 @@
         <v>0.46</v>
       </c>
       <c r="E3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
         <v>1.84</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -482,17 +515,17 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -506,17 +539,17 @@
         <v>1.91</v>
       </c>
       <c r="E5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
         <v>1.91</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -530,17 +563,17 @@
         <v>1.59</v>
       </c>
       <c r="E6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
         <v>1.59</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -551,183 +584,183 @@
         <v>9</v>
       </c>
       <c r="D7" s="3">
-        <v>16.76</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="E7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>16.76</v>
-      </c>
-      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>16.760000000000002</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
       <c r="E8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.76</v>
-      </c>
-      <c r="G8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9">
-      <c r="D9" s="4"/>
-      <c r="F9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="4"/>
-      <c r="F10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="4"/>
-      <c r="F11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="4"/>
-      <c r="F12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="4"/>
-      <c r="F13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" s="4"/>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="4"/>
-      <c r="F15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="4"/>
-      <c r="F16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="4"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="3"/>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="4">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3">
         <f>SUM(F2:F16)</f>
-        <v>30.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="4"/>
-      <c r="F33" s="4"/>
+        <v>30.630000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G5"/>
-    <hyperlink r:id="rId5" ref="G6"/>
-    <hyperlink r:id="rId6" ref="G7"/>
-    <hyperlink r:id="rId7" ref="G8"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>